--- a/logs/baselines_seed42.xlsx
+++ b/logs/baselines_seed42.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddore/Documents/RooseBERT/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0C44CF-054E-8D40-91B5-5BD87682D240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7276788-1E30-7F46-836F-3285274D5875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="argument detection" sheetId="1" r:id="rId1"/>
@@ -1462,9 +1462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L325"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -13835,8 +13835,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L1048576">
-    <sortCondition descending="1" ref="I1:I1048576"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L325">
+    <sortCondition descending="1" ref="I1:I325"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26230,9 +26230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
